--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3534.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3534.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.401113849694277</v>
+        <v>1.0864417552948</v>
       </c>
       <c r="B1">
-        <v>2.650164940930132</v>
+        <v>1.231530427932739</v>
       </c>
       <c r="C1">
-        <v>2.808323499552928</v>
+        <v>1.181447863578796</v>
       </c>
       <c r="D1">
-        <v>2.476704122787087</v>
+        <v>1.405853629112244</v>
       </c>
       <c r="E1">
-        <v>0.7875700640290636</v>
+        <v>1.274385333061218</v>
       </c>
     </row>
   </sheetData>
